--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>worst</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -55,43 +58,22 @@
     <t>boring</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>dangerously</t>
+    <t>destroying</t>
   </si>
   <si>
     <t>creepy</t>
@@ -100,19 +82,13 @@
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>racist</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>insane</t>
@@ -124,12 +100,21 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>harsh</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
@@ -139,91 +124,64 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>important</t>
+    <t>best</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>relevant</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>documentary</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -602,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS34"/>
+  <dimension ref="A1:BS26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,28 +568,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AK1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AT1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="BC1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="BL1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -833,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01861200685418082</v>
+        <v>0.01875815198928246</v>
       </c>
       <c r="C3">
         <v>24</v>
@@ -854,16 +812,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.01033978983918763</v>
+        <v>0.01115228192183775</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -875,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02205883722827185</v>
+        <v>0.02223246303325715</v>
       </c>
       <c r="U3">
         <v>24</v>
@@ -902,16 +860,16 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AC3">
-        <v>0.01206389587869595</v>
+        <v>0.1333656388656859</v>
       </c>
       <c r="AD3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -923,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.0270965123904049</v>
+        <v>0.2328862145404975</v>
       </c>
       <c r="AM3">
         <v>24</v>
@@ -950,16 +908,16 @@
         <v>1</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AU3">
-        <v>0.1006910319245123</v>
+        <v>0.1134373731651613</v>
       </c>
       <c r="AV3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -971,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03515679264981778</v>
+        <v>0.2022551869122618</v>
       </c>
       <c r="BE3">
         <v>24</v>
@@ -998,16 +956,16 @@
         <v>1</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BM3">
-        <v>0.07759212172042954</v>
+        <v>0.1010038246912032</v>
       </c>
       <c r="BN3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1019,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1027,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01563215808150603</v>
+        <v>0.01575492351867656</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1048,16 +1006,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.00965114646154013</v>
+        <v>0.0111282300178289</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1069,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01852026681072054</v>
+        <v>0.01866612922441264</v>
       </c>
       <c r="U4">
         <v>20</v>
@@ -1096,16 +1054,16 @@
         <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AC4">
-        <v>0.01143927596754496</v>
+        <v>0.1322304564928493</v>
       </c>
       <c r="AD4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1117,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.02274134879957252</v>
+        <v>0.1959822867048994</v>
       </c>
       <c r="AM4">
         <v>20</v>
@@ -1144,16 +1102,16 @@
         <v>1</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AU4">
-        <v>0.0972856958953527</v>
+        <v>0.1119108763055688</v>
       </c>
       <c r="AV4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1165,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02949507998173568</v>
+        <v>0.1713806251807748</v>
       </c>
       <c r="BE4">
         <v>20</v>
@@ -1192,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BM4">
-        <v>0.07633711571920936</v>
+        <v>0.09923318076368423</v>
       </c>
       <c r="BN4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BO4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1213,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1221,13 +1179,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003712762990806888</v>
+        <v>0.004492816753904427</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1242,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.009639098486503532</v>
+        <v>0.00968535425226676</v>
       </c>
       <c r="L5">
         <v>12</v>
@@ -1263,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004365985140515306</v>
+        <v>0.00529237744124574</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1290,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AC5">
-        <v>0.01138204808612114</v>
+        <v>0.1169083082968807</v>
       </c>
       <c r="AD5">
         <v>12</v>
@@ -1311,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.005320694436242996</v>
+        <v>0.05759255732140642</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1338,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AU5">
-        <v>0.09649529170030574</v>
+        <v>0.1014456314452176</v>
       </c>
       <c r="AV5">
         <v>12</v>
@@ -1359,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.006848229309407299</v>
+        <v>0.05560101868769889</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1386,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BM5">
-        <v>0.0755837399497838</v>
+        <v>0.0917982318640667</v>
       </c>
       <c r="BN5">
         <v>12</v>
@@ -1407,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1415,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003700715015770292</v>
+        <v>0.003742009636252952</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1433,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.009615002536430342</v>
+        <v>0.009673328300262334</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -1457,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004308757259091476</v>
+        <v>0.004400793989034614</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1481,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AC6">
-        <v>0.01126759232327348</v>
+        <v>0.1163407171104624</v>
       </c>
       <c r="AD6">
         <v>12</v>
@@ -1505,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.005197434383945517</v>
+        <v>0.04836657536250689</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1529,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AU6">
-        <v>0.09491448331021181</v>
+        <v>0.1006823830154213</v>
       </c>
       <c r="AV6">
         <v>12</v>
@@ -1553,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.00661931778371198</v>
+        <v>0.04788237825482716</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1577,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BM6">
-        <v>0.07407698841093271</v>
+        <v>0.09091290990030722</v>
       </c>
       <c r="BN6">
         <v>12</v>
@@ -1601,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1609,37 +1567,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002973824785156489</v>
+        <v>0.003729983684248526</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.004451131604354823</v>
+        <v>0.005212415531527234</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1657,37 +1615,37 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.003509956476839395</v>
+        <v>0.004343670717013592</v>
       </c>
       <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>3</v>
       </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AC7">
-        <v>0.005264258324637414</v>
+        <v>0.06413076947195528</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1705,37 +1663,37 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004293533564683641</v>
+        <v>0.04733214388821647</v>
       </c>
       <c r="AM7">
+        <v>4</v>
+      </c>
+      <c r="AN7">
+        <v>4</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>3</v>
       </c>
-      <c r="AN7">
-        <v>3</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
       <c r="AT7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AU7">
-        <v>0.04855061154725625</v>
+        <v>0.06089091570660867</v>
       </c>
       <c r="AV7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1753,37 +1711,37 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.005547256905234436</v>
+        <v>0.04664605540701656</v>
       </c>
       <c r="BE7">
+        <v>4</v>
+      </c>
+      <c r="BF7">
+        <v>4</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
         <v>3</v>
       </c>
-      <c r="BF7">
-        <v>3</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
       <c r="BL7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BM7">
-        <v>0.04382073697376343</v>
+        <v>0.05886952160010032</v>
       </c>
       <c r="BN7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1803,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002967800797638191</v>
+        <v>0.002997215494603689</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1821,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.004445107616836524</v>
+        <v>0.004466925744737314</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1845,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.00348134253612748</v>
+        <v>0.003537772172833997</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1869,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AC8">
-        <v>0.0052356443839255</v>
+        <v>0.05533451300113439</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1893,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004231903538534901</v>
+        <v>0.03965780914075256</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1917,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AU8">
-        <v>0.04815540944973278</v>
+        <v>0.05413179641684054</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1941,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005432801142386776</v>
+        <v>0.04078189924586073</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1965,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BM8">
-        <v>0.04344404908905065</v>
+        <v>0.05338140322277259</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -1989,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1997,13 +1955,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002955752822601596</v>
+        <v>0.002246408376952213</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2015,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.003708272339042635</v>
+        <v>0.003721435957947392</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2045,13 +2003,13 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.00342411465470365</v>
+        <v>0.00264618872062287</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2063,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AC9">
-        <v>0.004382112947079193</v>
+        <v>0.04653825653031347</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2093,13 +2051,13 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004108643486237422</v>
+        <v>0.03043182718185303</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2111,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AU9">
-        <v>0.04158845664038534</v>
+        <v>0.04737267712707239</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2141,13 +2099,13 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005203889616691457</v>
+        <v>0.033063258812989</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2159,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BM9">
-        <v>0.0391755400101283</v>
+        <v>0.04789328484544485</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2191,13 +2149,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002937680860046702</v>
+        <v>0.002246408376952213</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2209,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.003081777637139657</v>
+        <v>0.003096086453717263</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -2239,13 +2197,13 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003338272832567905</v>
+        <v>0.00264618872062287</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2257,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC10">
-        <v>0.003471353628809057</v>
+        <v>0.0374582044662834</v>
       </c>
       <c r="AD10">
         <v>3</v>
@@ -2287,13 +2245,13 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.003923753407791203</v>
+        <v>0.03043182718185303</v>
       </c>
       <c r="AM10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2305,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AU10">
-        <v>0.03423109963599094</v>
+        <v>0.0402319336224061</v>
       </c>
       <c r="AV10">
         <v>3</v>
@@ -2335,13 +2293,13 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.00486052232814848</v>
+        <v>0.033063258812989</v>
       </c>
       <c r="BE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2353,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="BM10">
-        <v>0.03415365516178039</v>
+        <v>0.04196250548623738</v>
       </c>
       <c r="BN10">
         <v>3</v>
@@ -2385,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002228862591987792</v>
+        <v>0.002246408376952213</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2406,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.002959389086212151</v>
+        <v>0.002969933195155258</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -2433,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002625313872451567</v>
+        <v>0.00264618872062287</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2454,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AC11">
-        <v>0.00261782219196275</v>
+        <v>0.0374582044662834</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2475,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003204742666975546</v>
+        <v>0.03043182718185303</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2502,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AU11">
-        <v>0.02766414682664349</v>
+        <v>0.0402319336224061</v>
       </c>
       <c r="AV11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX11">
         <v>1</v>
@@ -2523,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004131828738213912</v>
+        <v>0.033063258812989</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2550,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="BM11">
-        <v>0.02988514608285804</v>
+        <v>0.04196250548623738</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -2571,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2579,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002228862591987792</v>
+        <v>0.002234382424947788</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2597,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.002222553808418262</v>
+        <v>0.002969933195155258</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2621,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002625313872451567</v>
+        <v>0.002589065448601849</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2645,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AC12">
-        <v>0.00261782219196275</v>
+        <v>0.02866194799546249</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -2669,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003204742666975546</v>
+        <v>0.02939739570756262</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2693,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AU12">
-        <v>0.02766414682664349</v>
+        <v>0.03347281433263796</v>
       </c>
       <c r="AV12">
         <v>2</v>
@@ -2717,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004131828738213912</v>
+        <v>0.0318269359651784</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2741,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="BM12">
-        <v>0.02988514608285804</v>
+        <v>0.03647438710890964</v>
       </c>
       <c r="BN12">
         <v>2</v>
@@ -2765,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2773,7 +2731,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002228862591987792</v>
+        <v>0.002204317544936724</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2791,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.002222553808418262</v>
+        <v>0.002224443408365338</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -2815,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002625313872451567</v>
+        <v>0.002446257268549295</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2839,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AC13">
-        <v>0.00256059431053892</v>
+        <v>0.02014948711785074</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2863,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003204742666975546</v>
+        <v>0.02681131702183658</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2887,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AU13">
-        <v>0.02687374263159654</v>
+        <v>0.02709531925776794</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -2911,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004131828738213912</v>
+        <v>0.02873612884565191</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2935,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="BM13">
-        <v>0.02913177031343249</v>
+        <v>0.03142892971346166</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>1</v>
@@ -2959,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2967,13 +2925,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002228862591987792</v>
+        <v>0.001495601259300738</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2988,16 +2946,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.002210505833381667</v>
+        <v>0.001484966597577629</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3009,19 +2967,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002625313872451567</v>
+        <v>0.001754605268411743</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3036,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AC14">
-        <v>0.001735676814404528</v>
+        <v>0.02014948711785074</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3063,13 +3021,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003204742666975546</v>
+        <v>0.0212058452229535</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3084,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AU14">
-        <v>0.02070199191977258</v>
+        <v>0.02709531925776794</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3111,13 +3069,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004131828738213912</v>
+        <v>0.02534461838011726</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3132,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BM14">
-        <v>0.02523994911922291</v>
+        <v>0.03142892971346166</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3161,13 +3119,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002228862591987792</v>
+        <v>0.001495601259300738</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3182,16 +3140,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.001800874682137411</v>
+        <v>0.001484966597577629</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3203,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002625313872451567</v>
+        <v>0.001754605268411743</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3230,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AC15">
-        <v>0.001735676814404528</v>
+        <v>0.02014948711785074</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3257,13 +3215,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003204742666975546</v>
+        <v>0.0212058452229535</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3278,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AU15">
-        <v>0.02070199191977258</v>
+        <v>0.02709531925776794</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3305,13 +3263,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004131828738213912</v>
+        <v>0.02534461838011726</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3326,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="BM15">
-        <v>0.02523994911922291</v>
+        <v>0.03142892971346166</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3355,13 +3313,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002228862591987792</v>
+        <v>0.001495601259300738</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3376,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.001479694543106075</v>
+        <v>0.001484966597577629</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3403,13 +3361,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002625313872451567</v>
+        <v>0.001754605268411743</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3424,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AC16">
-        <v>0.001735676814404528</v>
+        <v>0.02014948711785074</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3451,13 +3409,13 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003204742666975546</v>
+        <v>0.0212058452229535</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3472,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AU16">
-        <v>0.02070199191977258</v>
+        <v>0.02709531925776794</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3499,13 +3457,13 @@
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004131828738213912</v>
+        <v>0.02534461838011726</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3520,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="BM16">
-        <v>0.02523994911922291</v>
+        <v>0.03142892971346166</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3549,13 +3507,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002228862591987792</v>
+        <v>0.001495601259300738</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3570,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.001479694543106075</v>
+        <v>0.001484966597577629</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3597,13 +3555,13 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002625313872451567</v>
+        <v>0.001754605268411743</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3618,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AC17">
-        <v>0.001735676814404528</v>
+        <v>0.01986569152464157</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3639,19 +3597,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003204742666975546</v>
+        <v>0.0212058452229535</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3666,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AU17">
-        <v>0.02070199191977258</v>
+        <v>0.0267136950428698</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3687,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.004131828738213912</v>
+        <v>0.02534461838011726</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3714,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BM17">
-        <v>0.02523994911922291</v>
+        <v>0.03098626873158192</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3735,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3743,13 +3701,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002228862591987792</v>
+        <v>0.001495601259300738</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3764,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.001479694543106075</v>
+        <v>0.001478953621575416</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3785,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002625313872451567</v>
+        <v>0.001754605268411743</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3812,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC18">
-        <v>0.001735676814404528</v>
+        <v>0.01986569152464157</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3833,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003204742666975546</v>
+        <v>0.0212058452229535</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3860,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AU18">
-        <v>0.02070199191977258</v>
+        <v>0.0267136950428698</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3881,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.004131828738213912</v>
+        <v>0.02534461838011726</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3908,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BM18">
-        <v>0.02523994911922291</v>
+        <v>0.03098626873158192</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3929,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3937,7 +3895,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001483900398819096</v>
+        <v>0.001495601259300738</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3958,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.001479694543106075</v>
+        <v>0.001478953621575416</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3979,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.00174067126806374</v>
+        <v>0.001754605268411743</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4006,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AC19">
-        <v>0.001735676814404528</v>
+        <v>0.01986569152464157</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4027,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.002115951769267451</v>
+        <v>0.0212058452229535</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4054,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AU19">
-        <v>0.02070199191977258</v>
+        <v>0.0267136950428698</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4075,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002716400571193388</v>
+        <v>0.02534461838011726</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4102,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="BM19">
-        <v>0.02523994911922291</v>
+        <v>0.03098626873158192</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4123,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4131,7 +4089,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001483900398819096</v>
+        <v>0.001495601259300738</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4152,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.001479694543106075</v>
+        <v>0.001478953621575416</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4173,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.00174067126806374</v>
+        <v>0.001754605268411743</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4200,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AC20">
-        <v>0.001735676814404528</v>
+        <v>0.01929810033822324</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4221,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.002115951769267451</v>
+        <v>0.0212058452229535</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4248,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AU20">
-        <v>0.02070199191977258</v>
+        <v>0.02595044661307352</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4269,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002716400571193388</v>
+        <v>0.02534461838011726</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4296,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BM20">
-        <v>0.02523994911922291</v>
+        <v>0.03010094676782243</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4317,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4325,7 +4283,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001483900398819096</v>
+        <v>0.001489588283298525</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4343,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.001479694543106075</v>
+        <v>0.001466927669570991</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4367,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.00174067126806374</v>
+        <v>0.001726043632401233</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4391,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AC21">
-        <v>0.001735676814404528</v>
+        <v>0.01901430474501408</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4415,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.002115951769267451</v>
+        <v>0.0206886294858083</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4439,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AU21">
-        <v>0.02070199191977258</v>
+        <v>0.02556882239817538</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4463,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002716400571193388</v>
+        <v>0.02472645695621196</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4487,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="BM21">
-        <v>0.02523994911922291</v>
+        <v>0.02965828578594269</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4511,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4519,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001483900398819096</v>
+        <v>0.001489588283298525</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4537,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.001479694543106075</v>
+        <v>0.001460914693568778</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4561,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.00174067126806374</v>
+        <v>0.001726043632401233</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4585,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AC22">
-        <v>0.001707062873692613</v>
+        <v>0.01702773559254992</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4609,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.002115951769267451</v>
+        <v>0.0206886294858083</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4633,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AU22">
-        <v>0.0203067898222491</v>
+        <v>0.0228974528938884</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4657,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002716400571193388</v>
+        <v>0.02472645695621196</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4681,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="BM22">
-        <v>0.02486326123451013</v>
+        <v>0.0265596589127845</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4705,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4713,7 +4671,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001483900398819096</v>
+        <v>0.001489588283298525</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4731,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.001479694543106075</v>
+        <v>0.001418823861553289</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4755,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.00174067126806374</v>
+        <v>0.001726043632401233</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4779,19 +4737,19 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>0.001678448932980699</v>
+        <v>0.01702351483656027</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4803,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.002115951769267451</v>
+        <v>0.0206886294858083</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4827,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AU23">
-        <v>0.01991158772472562</v>
+        <v>0.02251582867899026</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4851,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002716400571193388</v>
+        <v>0.02472645695621196</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4875,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="BM23">
-        <v>0.02448657334979736</v>
+        <v>0.02611699793090476</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4899,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4907,7 +4865,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001483900398819096</v>
+        <v>0.001483575307296312</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4925,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.001473670555587778</v>
+        <v>0.001412810885551076</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4949,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.00174067126806374</v>
+        <v>0.001697481996390722</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4973,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AC24">
-        <v>0.001678448932980699</v>
+        <v>0.01674393999934076</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -4997,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.002115951769267451</v>
+        <v>0.02017141374866309</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5021,19 +4979,19 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AU24">
-        <v>0.01991158772472562</v>
+        <v>0.007683758777665831</v>
       </c>
       <c r="AV24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX24">
         <v>1</v>
@@ -5045,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002716400571193388</v>
+        <v>0.02410829553230667</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5069,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="BM24">
-        <v>0.02448657334979736</v>
+        <v>0.003541287855037932</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5093,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5101,7 +5059,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001483900398819096</v>
+        <v>0.001249069243210014</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5119,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.00146764656806948</v>
+        <v>0.001106149109438224</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5143,13 +5101,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.00174067126806374</v>
+        <v>0.0005835781919808056</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5167,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AC25">
-        <v>0.001649834992268784</v>
+        <v>0.002270364745673322</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5191,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.002115951769267451</v>
+        <v>0</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5215,13 +5173,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AU25">
-        <v>0.01951638562720215</v>
+        <v>0.003052993719185121</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5239,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.002716400571193388</v>
+        <v>0</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5263,19 +5221,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="BM25">
-        <v>0.02410988546508459</v>
+        <v>0.001856542729951724</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP25">
         <v>1</v>
@@ -5287,39 +5245,15 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.001483900398819096</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.00146764656806948</v>
+        <v>0.001058045301420522</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5337,37 +5271,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.00174067126806374</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC26">
-        <v>0.001621221051556869</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5385,37 +5295,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>4</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.002115951769267451</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AU26">
-        <v>0.01912118352967867</v>
+        <v>0</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5433,37 +5319,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>4</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.002716400571193388</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="BM26">
-        <v>0.02373319758037182</v>
+        <v>0</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5481,1271 +5343,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001483900398819096</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27">
-        <v>0.001461622580551182</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.00174067126806374</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC27">
-        <v>0.001621221051556869</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>4</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.002115951769267451</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU27">
-        <v>0.01912118352967867</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>4</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.002716400571193388</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM27">
-        <v>0.02373319758037182</v>
-      </c>
-      <c r="BN27">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
-        <v>1</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001483900398819096</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28">
-        <v>0.001455598593032884</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>4</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.00174067126806374</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC28">
-        <v>0.001563993170133039</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>6</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.002115951769267451</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU28">
-        <v>0.01833077933463171</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>6</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.002716400571193388</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM28">
-        <v>0.02297982181094627</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001477876411300798</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29">
-        <v>0.001455598593032884</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001712057327351825</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC29">
-        <v>0.001478151347997295</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>9</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.002054321743118711</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU29">
-        <v>0.01714517304206127</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>9</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.002601944808345729</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM29">
-        <v>0.02184975815680796</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001477876411300798</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30">
-        <v>0.001443550617996288</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001712057327351825</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC30">
-        <v>0.001420923466573465</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>11</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.002054321743118711</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU30">
-        <v>0.01635476884701432</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>11</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.002601944808345729</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM30">
-        <v>0.02109638238738241</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.001477876411300798</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.001425478655441395</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001712057327351825</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC31">
-        <v>0.00140626311304005</v>
-      </c>
-      <c r="AD31">
-        <v>4</v>
-      </c>
-      <c r="AE31">
-        <v>4</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>104</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.002054321743118711</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU31">
-        <v>0.0147739604569204</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>15</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.002601944808345729</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>1</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM31">
-        <v>0.01958963084853133</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.001413430680404799</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC32">
-        <v>0.001306467703725806</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>15</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU32">
-        <v>0.005289110116356917</v>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>39</v>
-      </c>
-      <c r="BL32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM32">
-        <v>0.01054912161542479</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="10:71">
-      <c r="J33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33">
-        <v>0.001389334730331607</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>15</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC33">
-        <v>0.0006197331266398498</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>39</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU33">
-        <v>0.0004874384979435728</v>
-      </c>
-      <c r="AV33">
-        <v>4</v>
-      </c>
-      <c r="AW33">
-        <v>4</v>
-      </c>
-      <c r="AX33">
-        <v>1</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>104</v>
-      </c>
-      <c r="BL33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BM33">
-        <v>0.003516994152963988</v>
-      </c>
-      <c r="BN33">
-        <v>2</v>
-      </c>
-      <c r="BO33">
-        <v>2</v>
-      </c>
-      <c r="BP33">
-        <v>1</v>
-      </c>
-      <c r="BQ33">
-        <v>0</v>
-      </c>
-      <c r="BR33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS33">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="10:71">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.001244759029892459</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>39</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC34">
-        <v>0.0006148463421287113</v>
-      </c>
-      <c r="AD34">
-        <v>2</v>
-      </c>
-      <c r="AE34">
-        <v>2</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>70</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>2</v>
-      </c>
-      <c r="AW34">
-        <v>2</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>70</v>
-      </c>
-      <c r="BL34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM34">
-        <v>0</v>
-      </c>
-      <c r="BN34">
-        <v>4</v>
-      </c>
-      <c r="BO34">
-        <v>4</v>
-      </c>
-      <c r="BP34">
-        <v>1</v>
-      </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
-      <c r="BR34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
